--- a/bankruptcy_data.xlsx
+++ b/bankruptcy_data.xlsx
@@ -433,17 +433,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="38" customWidth="1" min="1" max="1"/>
-    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
     <col width="15" customWidth="1" min="4" max="4"/>
     <col width="50" customWidth="1" min="5" max="5"/>
-    <col width="42" customWidth="1" min="6" max="6"/>
+    <col width="22" customWidth="1" min="6" max="6"/>
     <col width="50" customWidth="1" min="7" max="7"/>
     <col width="33" customWidth="1" min="8" max="8"/>
     <col width="17" customWidth="1" min="9" max="9"/>
     <col width="12" customWidth="1" min="10" max="10"/>
     <col width="13" customWidth="1" min="11" max="11"/>
-    <col width="32" customWidth="1" min="12" max="12"/>
+    <col width="34" customWidth="1" min="12" max="12"/>
     <col width="23" customWidth="1" min="13" max="13"/>
     <col width="24" customWidth="1" min="14" max="14"/>
     <col width="11" customWidth="1" min="15" max="15"/>
@@ -571,22 +571,22 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>c11c2309-98f6-46b3-b912-b0af10e6a1dd</t>
+          <t>5e1b99ec-8ef3-4146-aada-0b5bcf0dd6f6</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>ООО "ВОЛГАДОРСТРОЙ"</t>
+          <t>ООО "ЛОБСКОЕ-5"</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>1657132277</t>
+          <t>1013003240</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>1131690050425</t>
+          <t>1021001010250</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
@@ -596,12 +596,12 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>Республика Татарстан</t>
+          <t>Республика Карелия</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>420034, РЕСПУБЛИКА ТАТАРСТАН (ТАТАРСТАН), Г.О. ГОРОД КАЗАНЬ, Г КАЗАНЬ, УЛ ПРОТОЧНАЯ, Д. 8, ПОМЕЩ. 1037, КАБИНЕТ 305</t>
+          <t>186350, РЕСПУБЛИКА КАРЕЛИЯ, Р-Н МЕДВЕЖЬЕГОРСКИЙ, СТ. ПЕРГУБА</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
@@ -611,34 +611,34 @@
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t>А65-27698/2025</t>
+          <t>А26-2125/2025</t>
         </is>
       </c>
       <c r="J2" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45946</v>
+        <v>46014</v>
       </c>
       <c r="L2" s="1" t="inlineStr">
         <is>
-          <t>Галимов Айрат Шаукатович</t>
+          <t>Назаров Евгений Константинович</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr"/>
       <c r="N2" s="2" t="n">
-        <v>45953</v>
+        <v>46019</v>
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
-          <t>168301001</t>
+          <t>101301001</t>
         </is>
       </c>
       <c r="P2" s="1" t="n">
-        <v>154545</v>
+        <v>15000</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>41484</v>
+        <v>37557</v>
       </c>
       <c r="R2" s="1" t="inlineStr">
         <is>
@@ -647,36 +647,40 @@
       </c>
       <c r="S2" s="1" t="inlineStr">
         <is>
-          <t>Строительство автомобильных дорог и автомагистралей</t>
-        </is>
-      </c>
-      <c r="T2" s="1" t="inlineStr"/>
-      <c r="U2" s="1" t="inlineStr"/>
+          <t>Добыча декоративного и строительного камня, известняка, гипса, мела и сланцев</t>
+        </is>
+      </c>
+      <c r="T2" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="U2" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="V2" s="1" t="inlineStr">
         <is>
-          <t>https://fedresurs.ru/backend/companies/c11c2309-98f6-46b3-b912-b0af10e6a1dd</t>
+          <t>https://fedresurs.ru/backend/companies/5e1b99ec-8ef3-4146-aada-0b5bcf0dd6f6</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>ef04cf81-71f3-44db-9123-e588d564bcce</t>
+          <t>fe3d27d1-05d2-40fa-90fb-9f02098e3ba8</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>ООО "ВАРТАНЕФТЬ"</t>
+          <t>ООО "БВК"</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>7733323414</t>
+          <t>3311017690</t>
         </is>
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>5177746042062</t>
+          <t>1083339001657</t>
         </is>
       </c>
       <c r="E3" s="1" t="inlineStr">
@@ -686,12 +690,12 @@
       </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
-          <t>г. Москва</t>
+          <t>Владимирская область</t>
         </is>
       </c>
       <c r="G3" s="1" t="inlineStr">
         <is>
-          <t>125466, Г.МОСКВА, УЛ. РОДИОНОВСКАЯ, Д. 9, ЭТ 1/ ПОМ VI/ КОМ 1-15</t>
+          <t>601630, ВЛАДИМИРСКАЯ ОБЛАСТЬ, Р-Н АЛЕКСАНДРОВСКИЙ, ПГТ БАЛАКИРЕВО, УЛ. КЛУБНАЯ, Д. 11, СТР. 2, ПОМЕЩ. 1</t>
         </is>
       </c>
       <c r="H3" s="1" t="inlineStr">
@@ -701,34 +705,34 @@
       </c>
       <c r="I3" s="1" t="inlineStr">
         <is>
-          <t>А40-49238/2024</t>
+          <t>А11-11738/2023</t>
         </is>
       </c>
       <c r="J3" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45958</v>
+        <v>45314</v>
       </c>
       <c r="L3" s="1" t="inlineStr">
         <is>
-          <t>Голенцов Евгений Александрович</t>
+          <t>Гапоненко Илья Александрович</t>
         </is>
       </c>
       <c r="M3" s="1" t="inlineStr"/>
       <c r="N3" s="2" t="n">
-        <v>45964</v>
+        <v>45325</v>
       </c>
       <c r="O3" s="1" t="inlineStr">
         <is>
-          <t>773301001</t>
+          <t>331101001</t>
         </is>
       </c>
       <c r="P3" s="1" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>43014</v>
+        <v>39618</v>
       </c>
       <c r="R3" s="1" t="inlineStr">
         <is>
@@ -737,51 +741,55 @@
       </c>
       <c r="S3" s="1" t="inlineStr">
         <is>
-          <t>Предоставление услуг в области добычи нефти и природного газа</t>
-        </is>
-      </c>
-      <c r="T3" s="1" t="inlineStr"/>
-      <c r="U3" s="1" t="inlineStr"/>
+          <t>Распределение воды для питьевых и промышленных нужд</t>
+        </is>
+      </c>
+      <c r="T3" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="U3" s="1" t="n">
+        <v>3</v>
+      </c>
       <c r="V3" s="1" t="inlineStr">
         <is>
-          <t>https://fedresurs.ru/backend/companies/ef04cf81-71f3-44db-9123-e588d564bcce</t>
+          <t>https://fedresurs.ru/backend/companies/fe3d27d1-05d2-40fa-90fb-9f02098e3ba8</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>22176bfc-507b-4927-911d-72f80680ea4f</t>
+          <t>9df7b253-e26c-44d6-91ee-628e15989af2</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>БАНК "ВПБ" (АО)</t>
+          <t>ООО "ИНТЕКО"</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>7708009162</t>
+          <t>5501270751</t>
         </is>
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>1037700098215</t>
+          <t>1215500009438</t>
         </is>
       </c>
       <c r="E4" s="1" t="inlineStr">
         <is>
-          <t>Юридическое лицо признано несостоятельным (банкротом) и в отношении него открыто конкурсное производство</t>
+          <t>Регистрирующим органом принято решение о предстоящем исключении юридического лица из ЕГРЮЛ (наличие в ЕГРЮЛ сведений о юридическом лице, в отношении которых внесена запись о недостоверности)</t>
         </is>
       </c>
       <c r="F4" s="1" t="inlineStr">
         <is>
-          <t>г. Москва</t>
+          <t>Омская область</t>
         </is>
       </c>
       <c r="G4" s="1" t="inlineStr">
         <is>
-          <t>115477, Г.МОСКВА, УЛ. КАНТЕМИРОВСКАЯ, Д.59, К.А</t>
+          <t>644070, ОМСКАЯ ОБЛАСТЬ, Г.О. ГОРОД ОМСК, Г ОМСК, УЛ ЛЕРМОНТОВА, Д. 63, ОФИС 309/2</t>
         </is>
       </c>
       <c r="H4" s="1" t="inlineStr"/>
@@ -793,104 +801,98 @@
       <c r="L4" s="1" t="inlineStr"/>
       <c r="M4" s="1" t="inlineStr"/>
       <c r="N4" s="2" t="n">
-        <v>42746</v>
+        <v>46050</v>
       </c>
       <c r="O4" s="1" t="inlineStr">
         <is>
-          <t>772401001</t>
+          <t>550301001</t>
         </is>
       </c>
       <c r="P4" s="1" t="n">
-        <v>4430115100</v>
+        <v>101000</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>37651</v>
+        <v>44306</v>
       </c>
       <c r="R4" s="1" t="inlineStr">
         <is>
-          <t>Непубличные акционерные общества</t>
+          <t>Общества с ограниченной ответственностью</t>
         </is>
       </c>
       <c r="S4" s="1" t="inlineStr">
         <is>
-          <t>Денежное посредничество прочее</t>
-        </is>
-      </c>
-      <c r="T4" s="1" t="inlineStr"/>
-      <c r="U4" s="1" t="inlineStr"/>
+          <t>Строительство коммунальных объектов для обеспечения электроэнергией и телекоммуникациями</t>
+        </is>
+      </c>
+      <c r="T4" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="U4" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="V4" s="1" t="inlineStr">
         <is>
-          <t>https://fedresurs.ru/backend/companies/22176bfc-507b-4927-911d-72f80680ea4f</t>
+          <t>https://fedresurs.ru/backend/companies/9df7b253-e26c-44d6-91ee-628e15989af2</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>e61786c4-7a00-49bb-b743-7698236d5236</t>
+          <t>f83b0f40-6ea0-454e-8c0b-aac4450b4ac1</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>ООО "ЗАМИТИНО"</t>
+          <t>ООО "НЕФТЕХИМСТРОЙ"</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>5024135694</t>
+          <t>5501263458</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>1135024002332</t>
+          <t>1205500008416</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>Юридическое лицо признано несостоятельным (банкротом) и в отношении него открыто конкурсное производство</t>
+          <t>Регистрирующим органом принято решение о предстоящем исключении юридического лица из ЕГРЮЛ (наличие в ЕГРЮЛ сведений о юридическом лице, в отношении которых внесена запись о недостоверности)</t>
         </is>
       </c>
       <c r="F5" s="1" t="inlineStr">
         <is>
-          <t>Московская область</t>
+          <t>Омская область</t>
         </is>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
-          <t>143442, МОСКОВСКАЯ ОБЛАСТЬ, Г КРАСНОГОРСК, ПГТ. САБУРОВО, УЛ САДОВАЯ, Д. 2, СТР. 1</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>Производство по делу завершено</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="inlineStr">
-        <is>
-          <t>А41-65448/2024</t>
-        </is>
-      </c>
+          <t>644029, ОМСКАЯ ОБЛАСТЬ, Г. ОМСК, УЛ. НЕФТЕЗАВОДСКАЯ, Д. 14, ЭТАЖ/ОФИС 4/408</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr"/>
+      <c r="I5" s="1" t="inlineStr"/>
       <c r="J5" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K5" s="2" t="n">
-        <v>46048</v>
-      </c>
+      <c r="K5" s="1" t="inlineStr"/>
       <c r="L5" s="1" t="inlineStr"/>
       <c r="M5" s="1" t="inlineStr"/>
       <c r="N5" s="2" t="n">
-        <v>45738</v>
+        <v>46050</v>
       </c>
       <c r="O5" s="1" t="inlineStr">
         <is>
-          <t>502401001</t>
+          <t>550101001</t>
         </is>
       </c>
       <c r="P5" s="1" t="n">
         <v>10000</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>41375</v>
+        <v>43908</v>
       </c>
       <c r="R5" s="1" t="inlineStr">
         <is>
@@ -899,88 +901,92 @@
       </c>
       <c r="S5" s="1" t="inlineStr">
         <is>
-          <t>Управление недвижимым имуществом за вознаграждение или на договорной основе</t>
-        </is>
-      </c>
-      <c r="T5" s="1" t="inlineStr"/>
-      <c r="U5" s="1" t="inlineStr"/>
+          <t>Строительство жилых и нежилых зданий</t>
+        </is>
+      </c>
+      <c r="T5" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="U5" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="V5" s="1" t="inlineStr">
         <is>
-          <t>https://fedresurs.ru/backend/companies/e61786c4-7a00-49bb-b743-7698236d5236</t>
+          <t>https://fedresurs.ru/backend/companies/f83b0f40-6ea0-454e-8c0b-aac4450b4ac1</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>17e9b42b-10f4-412b-a847-7c219a4cb563</t>
+          <t>1d7d1ae3-d319-42ca-a718-c2c8bb49eda8</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>ООО "СТРОЙПРОЕКТ"</t>
+          <t>ООО "СБТ"</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>2724152347</t>
+          <t>6732200440</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>1112722004196</t>
+          <t>1206700014157</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>Юридическое лицо признано несостоятельным (банкротом) и в отношении него открыто конкурсное производство</t>
+          <t>Регистрирующим органом принято решение о предстоящем исключении юридического лица из ЕГРЮЛ (недействующее юридическое лицо)</t>
         </is>
       </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
-          <t>Хабаровский край</t>
+          <t>Смоленская область</t>
         </is>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
-          <t>680006, ХАБАРОВСКИЙ КРАЙ, Г. ХАБАРОВСК, УЛ. СВЕТОВАЯ, Д. 19А, ОФИС 1</t>
+          <t>214012, СМОЛЕНСКАЯ ОБЛАСТЬ, Г. СМОЛЕНСК, УЛ. НОВО-ЛЕНИНГРАДСКАЯ, Д. 15, ЭТАЖ 3, ОФИС 304 А</t>
         </is>
       </c>
       <c r="H6" s="1" t="inlineStr">
         <is>
-          <t>Конкурсное производство</t>
+          <t>Производство по делу прекращено</t>
         </is>
       </c>
       <c r="I6" s="1" t="inlineStr">
         <is>
-          <t>А73-15595/2018</t>
+          <t>А62-11041/2023</t>
         </is>
       </c>
       <c r="J6" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>43613</v>
+        <v>45495</v>
       </c>
       <c r="L6" s="1" t="inlineStr">
         <is>
-          <t>Свистунов Антон Юрьевич</t>
+          <t>Одинаров Артем Александрович</t>
         </is>
       </c>
       <c r="M6" s="1" t="inlineStr"/>
       <c r="N6" s="2" t="n">
-        <v>43623</v>
+        <v>46001</v>
       </c>
       <c r="O6" s="1" t="inlineStr">
         <is>
-          <t>272301001</t>
+          <t>673201001</t>
         </is>
       </c>
       <c r="P6" s="1" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>40680</v>
+        <v>44091</v>
       </c>
       <c r="R6" s="1" t="inlineStr">
         <is>
@@ -992,251 +998,273 @@
           <t>Строительство жилых и нежилых зданий</t>
         </is>
       </c>
-      <c r="T6" s="1" t="inlineStr"/>
-      <c r="U6" s="1" t="inlineStr"/>
+      <c r="T6" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="U6" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="V6" s="1" t="inlineStr">
         <is>
-          <t>https://fedresurs.ru/backend/companies/17e9b42b-10f4-412b-a847-7c219a4cb563</t>
+          <t>https://fedresurs.ru/backend/companies/1d7d1ae3-d319-42ca-a718-c2c8bb49eda8</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>40b172f4-1903-4b21-a7e4-fa82ebeeeabf</t>
+          <t>cb8aa436-c4e7-4816-849a-b88e8d095633</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>АО НТЦ "ЭВРИКА-ТРЕЙД"</t>
+          <t>ООО "ЭКО ТЕХНОЛОГИИ"</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>8602053340</t>
+          <t>6729024593</t>
         </is>
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>1028600606726</t>
+          <t>1106731004181</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>Юридическое лицо признано несостоятельным (банкротом) и в отношении него открыто конкурсное производство</t>
+          <t>Действующее</t>
         </is>
       </c>
       <c r="F7" s="1" t="inlineStr">
         <is>
-          <t>Ханты-Мансийский автономный округ - Югра</t>
+          <t>Смоленская область</t>
         </is>
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
-          <t>628426, ХАНТЫ-МАНСИЙСКИЙ АВТОНОМНЫЙ ОКРУГ - ЮГРА, Г. СУРГУТ, УЛ. ПРОФСОЮЗОВ, Д.62</t>
+          <t>214006, СМОЛЕНСКАЯ ОБЛАСТЬ, Г. СМОЛЕНСК, УЛ. ГУБЕНКО, Д.9, 69</t>
         </is>
       </c>
       <c r="H7" s="1" t="inlineStr">
         <is>
-          <t>Конкурсное производство</t>
+          <t>Производство по делу прекращено</t>
         </is>
       </c>
       <c r="I7" s="1" t="inlineStr">
         <is>
-          <t>А75-20635/2022</t>
+          <t>А62-23/2019</t>
         </is>
       </c>
       <c r="J7" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45512</v>
+        <v>44047</v>
       </c>
       <c r="L7" s="1" t="inlineStr">
         <is>
-          <t>Розгон Елена Валерьевна</t>
+          <t>Добровольский Максим Валерьевич</t>
         </is>
       </c>
       <c r="M7" s="1" t="inlineStr"/>
-      <c r="N7" s="2" t="n">
-        <v>45519</v>
-      </c>
+      <c r="N7" s="1" t="inlineStr"/>
       <c r="O7" s="1" t="inlineStr">
         <is>
-          <t>860201001</t>
+          <t>672901001</t>
         </is>
       </c>
       <c r="P7" s="1" t="n">
-        <v>300000</v>
+        <v>10000</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>37607</v>
+        <v>40302</v>
       </c>
       <c r="R7" s="1" t="inlineStr">
         <is>
-          <t>Непубличные акционерные общества</t>
+          <t>Общества с ограниченной ответственностью</t>
         </is>
       </c>
       <c r="S7" s="1" t="inlineStr">
         <is>
-          <t>Торговля автотранспортными средствами</t>
-        </is>
-      </c>
-      <c r="T7" s="1" t="inlineStr"/>
-      <c r="U7" s="1" t="inlineStr"/>
+          <t>Распиловка и строгание древесины</t>
+        </is>
+      </c>
+      <c r="T7" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="U7" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="V7" s="1" t="inlineStr">
         <is>
-          <t>https://fedresurs.ru/backend/companies/40b172f4-1903-4b21-a7e4-fa82ebeeeabf</t>
+          <t>https://fedresurs.ru/backend/companies/cb8aa436-c4e7-4816-849a-b88e8d095633</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>d830abd2-61e6-4ba3-beb9-756b2da6fbbe</t>
+          <t>179da63d-d45b-4e2e-815d-7ecbc7e6173f</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>АКБ "СПУРТ" (ПАО)</t>
+          <t>ЗАО "МОСКОВИЯ"</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>1653017026</t>
+          <t>6731000455</t>
         </is>
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>1021600000421</t>
+          <t>1026700668136</t>
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>Юридическое лицо признано несостоятельным (банкротом) и в отношении него открыто конкурсное производство</t>
+          <t>Действующее</t>
         </is>
       </c>
       <c r="F8" s="1" t="inlineStr">
         <is>
-          <t>Республика Татарстан</t>
+          <t>Смоленская область</t>
         </is>
       </c>
       <c r="G8" s="1" t="inlineStr">
         <is>
-          <t>420107, РЕСПУБЛИКА ТАТАРСТАН (ТАТАРСТАН), Г КАЗАНЬ, УЛ СПАРТАКОВСКАЯ, Д. 2</t>
-        </is>
-      </c>
-      <c r="H8" s="1" t="inlineStr"/>
-      <c r="I8" s="1" t="inlineStr"/>
+          <t>214580, СМОЛЕНСКАЯ ОБЛАСТЬ, Р-Н СМОЛЕНСКИЙ, Д ТУРКОМПЛЕКС СОКОЛЬЯ ГОРА, ЗД. 4</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="inlineStr">
+        <is>
+          <t>Производство по делу прекращено</t>
+        </is>
+      </c>
+      <c r="I8" s="1" t="inlineStr">
+        <is>
+          <t>А62-9792/2022</t>
+        </is>
+      </c>
       <c r="J8" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K8" s="1" t="inlineStr"/>
-      <c r="L8" s="1" t="inlineStr"/>
+      <c r="K8" s="2" t="n">
+        <v>45155</v>
+      </c>
+      <c r="L8" s="1" t="inlineStr">
+        <is>
+          <t>Абашева Оксана Георгиевна</t>
+        </is>
+      </c>
       <c r="M8" s="1" t="inlineStr"/>
-      <c r="N8" s="2" t="n">
-        <v>43808</v>
-      </c>
+      <c r="N8" s="1" t="inlineStr"/>
       <c r="O8" s="1" t="inlineStr">
         <is>
-          <t>165501001</t>
+          <t>671401001</t>
         </is>
       </c>
       <c r="P8" s="1" t="n">
-        <v>1000000000</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>37490</v>
+        <v>37561</v>
       </c>
       <c r="R8" s="1" t="inlineStr">
         <is>
-          <t>Публичные акционерные общества</t>
+          <t>Непубличные акционерные общества</t>
         </is>
       </c>
       <c r="S8" s="1" t="inlineStr">
         <is>
-          <t>Деятельность Центрального банка Российской Федерации (Банка России)</t>
-        </is>
-      </c>
-      <c r="T8" s="1" t="inlineStr"/>
-      <c r="U8" s="1" t="inlineStr"/>
+          <t>Деятельность по предоставлению прочих мест для временного проживания</t>
+        </is>
+      </c>
+      <c r="T8" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="U8" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="V8" s="1" t="inlineStr">
         <is>
-          <t>https://fedresurs.ru/backend/companies/d830abd2-61e6-4ba3-beb9-756b2da6fbbe</t>
+          <t>https://fedresurs.ru/backend/companies/179da63d-d45b-4e2e-815d-7ecbc7e6173f</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>7fad9beb-4b8f-4464-9ede-a67f7626eed5</t>
+          <t>d117495a-19d8-45d6-8b10-d1375f073ddb</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>ООО "АЛЬЯНСАВТОГАЗ"</t>
+          <t>ООО "100РА ЛТД"</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>5404268108</t>
+          <t>5038096300</t>
         </is>
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>1065404017337</t>
+          <t>1135038000679</t>
         </is>
       </c>
       <c r="E9" s="1" t="inlineStr">
         <is>
-          <t>Регистрирующим органом принято решение о предстоящем исключении юридического лица из ЕГРЮЛ (наличие в ЕГРЮЛ сведений о юридическом лице, в отношении которых внесена запись о недостоверности)</t>
+          <t>Юридическое лицо признано несостоятельным (банкротом) и в отношении него открыто конкурсное производство</t>
         </is>
       </c>
       <c r="F9" s="1" t="inlineStr">
         <is>
-          <t>Новосибирская область</t>
+          <t>г. Москва</t>
         </is>
       </c>
       <c r="G9" s="1" t="inlineStr">
         <is>
-          <t>630096, НОВОСИБИРСКАЯ ОБЛАСТЬ, Г. НОВОСИБИРСК, УЛ. СТАНЦИОННАЯ, Д.59/2</t>
+          <t>119019, Г.МОСКВА, ВН.ТЕР.Г. МУНИЦИПАЛЬНЫЙ ОКРУГ ХАМОВНИКИ, УЛ ВОЛХОНКА, Д. 5/6, СТР. 9, ПОМЕЩ. 7/1</t>
         </is>
       </c>
       <c r="H9" s="1" t="inlineStr">
         <is>
-          <t>Производство по делу прекращено</t>
+          <t>Конкурсное производство</t>
         </is>
       </c>
       <c r="I9" s="1" t="inlineStr">
         <is>
-          <t>А45-26585/2019</t>
+          <t>А40-270807/2024</t>
         </is>
       </c>
       <c r="J9" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>44965</v>
+        <v>45777</v>
       </c>
       <c r="L9" s="1" t="inlineStr">
         <is>
-          <t>Лебедев Сергей Викторович</t>
+          <t>Хремин Игорь Федорович</t>
         </is>
       </c>
       <c r="M9" s="1" t="inlineStr"/>
       <c r="N9" s="2" t="n">
-        <v>46050</v>
+        <v>45785</v>
       </c>
       <c r="O9" s="1" t="inlineStr">
         <is>
-          <t>540401001</t>
+          <t>770401001</t>
         </is>
       </c>
       <c r="P9" s="1" t="n">
-        <v>10000</v>
+        <v>204082</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>38777</v>
+        <v>41318</v>
       </c>
       <c r="R9" s="1" t="inlineStr">
         <is>
@@ -1245,86 +1273,92 @@
       </c>
       <c r="S9" s="1" t="inlineStr">
         <is>
-          <t>Техническое обслуживание и ремонт автотранспортных средств</t>
-        </is>
-      </c>
-      <c r="T9" s="1" t="inlineStr"/>
-      <c r="U9" s="1" t="inlineStr"/>
+          <t>Строительство жилых и нежилых зданий</t>
+        </is>
+      </c>
+      <c r="T9" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="U9" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="V9" s="1" t="inlineStr">
         <is>
-          <t>https://fedresurs.ru/backend/companies/7fad9beb-4b8f-4464-9ede-a67f7626eed5</t>
+          <t>https://fedresurs.ru/backend/companies/d117495a-19d8-45d6-8b10-d1375f073ddb</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>c47cbddf-0eb8-44e8-96bb-2c0d83f3199d</t>
+          <t>e6aa55be-1ba1-4959-9873-5d2eca89a93c</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>ООО "ГАЛАТЕЯ"</t>
+          <t>ООО "АГРОФИРМА "ЗАВОДСКАЯ"</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>5406602686</t>
+          <t>1304000357</t>
         </is>
       </c>
       <c r="D10" s="1" t="inlineStr">
         <is>
-          <t>1165476068120</t>
+          <t>1161326058101</t>
         </is>
       </c>
       <c r="E10" s="1" t="inlineStr">
         <is>
-          <t>Действующее</t>
+          <t>Юридическое лицо признано несостоятельным (банкротом) и в отношении него открыто конкурсное производство</t>
         </is>
       </c>
       <c r="F10" s="1" t="inlineStr">
         <is>
-          <t>Новосибирская область</t>
+          <t>Республика Мордовия</t>
         </is>
       </c>
       <c r="G10" s="1" t="inlineStr">
         <is>
-          <t>630124, НОВОСИБИРСКАЯ ОБЛАСТЬ, Г.О. ГОРОД НОВОСИБИРСК, Г НОВОСИБИРСК, УЛ ЕСЕНИНА, Д. 5</t>
+          <t>430005, РЕСПУБЛИКА МОРДОВИЯ, Р-Н БОЛЬШЕБЕРЕЗНИКОВСКИЙ, С МАРЬЯНОВКА, УЛ ГАГАРИНА, Д. 2В</t>
         </is>
       </c>
       <c r="H10" s="1" t="inlineStr">
         <is>
-          <t>Производство по делу прекращено</t>
+          <t>Конкурсное производство</t>
         </is>
       </c>
       <c r="I10" s="1" t="inlineStr">
         <is>
-          <t>А45-13110/2021</t>
+          <t>А39-4576/2021</t>
         </is>
       </c>
       <c r="J10" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>44669</v>
+        <v>44809</v>
       </c>
       <c r="L10" s="1" t="inlineStr">
         <is>
-          <t>Самсонов Дмитрий Владимирович</t>
+          <t>Косынкин Александр Александрович</t>
         </is>
       </c>
       <c r="M10" s="1" t="inlineStr"/>
-      <c r="N10" s="1" t="inlineStr"/>
+      <c r="N10" s="2" t="n">
+        <v>44823</v>
+      </c>
       <c r="O10" s="1" t="inlineStr">
         <is>
-          <t>540501001</t>
+          <t>130401001</t>
         </is>
       </c>
       <c r="P10" s="1" t="n">
         <v>10000</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>42418</v>
+        <v>42683</v>
       </c>
       <c r="R10" s="1" t="inlineStr">
         <is>
@@ -1333,88 +1367,92 @@
       </c>
       <c r="S10" s="1" t="inlineStr">
         <is>
-          <t>Аренда и управление собственным или арендованным недвижимым имуществом</t>
-        </is>
-      </c>
-      <c r="T10" s="1" t="inlineStr"/>
-      <c r="U10" s="1" t="inlineStr"/>
+          <t>Выращивание зерновых (кроме риса), зернобобовых культур и семян масличных культур</t>
+        </is>
+      </c>
+      <c r="T10" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="U10" s="1" t="n">
+        <v>24</v>
+      </c>
       <c r="V10" s="1" t="inlineStr">
         <is>
-          <t>https://fedresurs.ru/backend/companies/c47cbddf-0eb8-44e8-96bb-2c0d83f3199d</t>
+          <t>https://fedresurs.ru/backend/companies/e6aa55be-1ba1-4959-9873-5d2eca89a93c</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>70c752fd-2fd9-42a2-9390-1db4f1187871</t>
+          <t>f4105aa9-fef4-4e3f-8837-3f9a7533d7a4</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>ООО "ТРЕНД"</t>
+          <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ПОЛЕТ-АГРО"</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>5257091016</t>
+          <t>5045064109</t>
         </is>
       </c>
       <c r="D11" s="1" t="inlineStr">
         <is>
-          <t>1075257004976</t>
+          <t>1195022001481</t>
         </is>
       </c>
       <c r="E11" s="1" t="inlineStr">
         <is>
-          <t>Юридическое лицо признано несостоятельным (банкротом) и в отношении него открыто конкурсное производство</t>
+          <t>В отношении юридического лица в деле о несостоятельности (банкротстве) введено наблюдение</t>
         </is>
       </c>
       <c r="F11" s="1" t="inlineStr">
         <is>
-          <t>Нижегородская область</t>
+          <t>Московская область</t>
         </is>
       </c>
       <c r="G11" s="1" t="inlineStr">
         <is>
-          <t>603086, НИЖЕГОРОДСКАЯ ОБЛАСТЬ, Г. НИЖНИЙ НОВГОРОД, Б-Р МИРА, Д.11, ОФ. 1"А"</t>
+          <t>142840, МОСКОВСКАЯ ОБЛАСТЬ, Г СТУПИНО, ПГТ. МИХНЕВО, УЛ ДОНБАССКАЯ, Д. 93А, ЭТАЖ 1, КОМ. 3</t>
         </is>
       </c>
       <c r="H11" s="1" t="inlineStr">
         <is>
-          <t>Конкурсное производство</t>
+          <t>Наблюдение</t>
         </is>
       </c>
       <c r="I11" s="1" t="inlineStr">
         <is>
-          <t>А43-27019/2024</t>
+          <t>А41-30359/2025</t>
         </is>
       </c>
       <c r="J11" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>45797</v>
+        <v>45834</v>
       </c>
       <c r="L11" s="1" t="inlineStr">
         <is>
-          <t>Воронин Сергей Николаевич</t>
+          <t>Карайван Сергей Степанович</t>
         </is>
       </c>
       <c r="M11" s="1" t="inlineStr"/>
       <c r="N11" s="2" t="n">
-        <v>45801</v>
+        <v>45838</v>
       </c>
       <c r="O11" s="1" t="inlineStr">
         <is>
-          <t>525701001</t>
+          <t>504501001</t>
         </is>
       </c>
       <c r="P11" s="1" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>39213</v>
+        <v>43529</v>
       </c>
       <c r="R11" s="1" t="inlineStr">
         <is>
@@ -1423,36 +1461,40 @@
       </c>
       <c r="S11" s="1" t="inlineStr">
         <is>
-          <t>Операции с недвижимым имуществом за вознаграждение или на договорной основе</t>
-        </is>
-      </c>
-      <c r="T11" s="1" t="inlineStr"/>
-      <c r="U11" s="1" t="inlineStr"/>
+          <t>Производство машин и оборудования для сельского и лесного хозяйства</t>
+        </is>
+      </c>
+      <c r="T11" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="U11" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="V11" s="1" t="inlineStr">
         <is>
-          <t>https://fedresurs.ru/backend/companies/70c752fd-2fd9-42a2-9390-1db4f1187871</t>
+          <t>https://fedresurs.ru/backend/companies/f4105aa9-fef4-4e3f-8837-3f9a7533d7a4</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>9871e617-e122-41a7-8800-88a2c3373b7a</t>
+          <t>157012ed-0244-47a1-96dc-78339a776afd</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>АО "БРЯНСКГИПРОВОДХОЗ"</t>
+          <t>ООО "ЗУБОВСКОЕ"</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>3250057750</t>
+          <t>1301000976</t>
         </is>
       </c>
       <c r="D12" s="1" t="inlineStr">
         <is>
-          <t>1053244000809</t>
+          <t>1181326002868</t>
         </is>
       </c>
       <c r="E12" s="1" t="inlineStr">
@@ -1462,12 +1504,12 @@
       </c>
       <c r="F12" s="1" t="inlineStr">
         <is>
-          <t>Брянская область</t>
+          <t>Республика Мордовия</t>
         </is>
       </c>
       <c r="G12" s="1" t="inlineStr">
         <is>
-          <t>241050, БРЯНСКАЯ ОБЛАСТЬ, Г. БРЯНСК, УЛ. КАЛИНИНА, Д.81</t>
+          <t>430005, РЕСПУБЛИКА МОРДОВИЯ, Г САРАНСК, УЛ КОММУНИСТИЧЕСКАЯ, Д. 50, КАБИНЕТ 21</t>
         </is>
       </c>
       <c r="H12" s="1" t="inlineStr">
@@ -1477,124 +1519,128 @@
       </c>
       <c r="I12" s="1" t="inlineStr">
         <is>
-          <t>А09-951/2021</t>
+          <t>А39-271/2021</t>
         </is>
       </c>
       <c r="J12" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>44434</v>
+        <v>44670</v>
       </c>
       <c r="L12" s="1" t="inlineStr">
         <is>
-          <t>Трушина Юлия Николаевна</t>
+          <t>Косынкин Александр Александрович</t>
         </is>
       </c>
       <c r="M12" s="1" t="inlineStr"/>
       <c r="N12" s="2" t="n">
-        <v>44438</v>
+        <v>44675</v>
       </c>
       <c r="O12" s="1" t="inlineStr">
         <is>
-          <t>325701001</t>
+          <t>132601001</t>
         </is>
       </c>
       <c r="P12" s="1" t="n">
-        <v>949000</v>
+        <v>10000</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>38370</v>
+        <v>43228</v>
       </c>
       <c r="R12" s="1" t="inlineStr">
         <is>
-          <t>Непубличные акционерные общества</t>
+          <t>Общества с ограниченной ответственностью</t>
         </is>
       </c>
       <c r="S12" s="1" t="inlineStr">
         <is>
-          <t>Строительство жилых и нежилых зданий</t>
-        </is>
-      </c>
-      <c r="T12" s="1" t="inlineStr"/>
-      <c r="U12" s="1" t="inlineStr"/>
+          <t>Аренда и управление собственным или арендованным недвижимым имуществом</t>
+        </is>
+      </c>
+      <c r="T12" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="U12" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="V12" s="1" t="inlineStr">
         <is>
-          <t>https://fedresurs.ru/backend/companies/9871e617-e122-41a7-8800-88a2c3373b7a</t>
+          <t>https://fedresurs.ru/backend/companies/157012ed-0244-47a1-96dc-78339a776afd</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>a2f81a07-79b8-4c4b-b022-17925e89258d</t>
+          <t>6e599e94-284d-45de-accf-d6388b0b20e1</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>ООО "АПК "СЕВЕРО-ЗАПАД"</t>
+          <t>ООО "ЮБИЛЕЙ"</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>4717009251</t>
+          <t>2308185510</t>
         </is>
       </c>
       <c r="D13" s="1" t="inlineStr">
         <is>
-          <t>1074717000258</t>
+          <t>1122308000858</t>
         </is>
       </c>
       <c r="E13" s="1" t="inlineStr">
         <is>
-          <t>Регистрирующим органом принято решение о предстоящем исключении юридического лица из ЕГРЮЛ (недействующее юридическое лицо)</t>
+          <t>Юридическое лицо признано несостоятельным (банкротом) и в отношении него открыто конкурсное производство</t>
         </is>
       </c>
       <c r="F13" s="1" t="inlineStr">
         <is>
-          <t>Ленинградская область</t>
+          <t>Ростовская область</t>
         </is>
       </c>
       <c r="G13" s="1" t="inlineStr">
         <is>
-          <t>188402, ЛЕНИНГРАДСКАЯ ОБЛАСТЬ, Р-Н ВОЛОСОВСКИЙ, Д. ТЕРПИЛИЦЫ</t>
+          <t>344039, РОСТОВСКАЯ ОБЛАСТЬ, Г. Ростов-на-Дону, УЛ. ЗЯВКИНА, Д. 33, ОФИС 3</t>
         </is>
       </c>
       <c r="H13" s="1" t="inlineStr">
         <is>
-          <t>Производство по делу прекращено</t>
+          <t>Конкурсное производство</t>
         </is>
       </c>
       <c r="I13" s="1" t="inlineStr">
         <is>
-          <t>А56-12574/2017</t>
+          <t>А53-12702/2023</t>
         </is>
       </c>
       <c r="J13" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>44735</v>
+        <v>45231</v>
       </c>
       <c r="L13" s="1" t="inlineStr">
         <is>
-          <t>Пастухов Илья Леонтьевич</t>
+          <t>Новопашин Станислав Сергеевич</t>
         </is>
       </c>
       <c r="M13" s="1" t="inlineStr"/>
       <c r="N13" s="2" t="n">
-        <v>46050</v>
+        <v>45261</v>
       </c>
       <c r="O13" s="1" t="inlineStr">
         <is>
-          <t>470501001</t>
+          <t>616401001</t>
         </is>
       </c>
       <c r="P13" s="1" t="n">
-        <v>9616000</v>
+        <v>10000</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>39199</v>
+        <v>40946</v>
       </c>
       <c r="R13" s="1" t="inlineStr">
         <is>
@@ -1603,88 +1649,92 @@
       </c>
       <c r="S13" s="1" t="inlineStr">
         <is>
-          <t>Смешанное сельское хозяйство</t>
-        </is>
-      </c>
-      <c r="T13" s="1" t="inlineStr"/>
-      <c r="U13" s="1" t="inlineStr"/>
+          <t>Деятельность ресторанов и услуги по доставке продуктов питания</t>
+        </is>
+      </c>
+      <c r="T13" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="U13" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="V13" s="1" t="inlineStr">
         <is>
-          <t>https://fedresurs.ru/backend/companies/a2f81a07-79b8-4c4b-b022-17925e89258d</t>
+          <t>https://fedresurs.ru/backend/companies/6e599e94-284d-45de-accf-d6388b0b20e1</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>51f9fa02-25b3-4d2c-8d0c-d9cb5d371ec9</t>
+          <t>b6f06b2b-b2d9-4cb2-8486-25a20cbcf409</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>ООО "СГ"</t>
+          <t>ООО "СТЕПАНОВ"</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>7714994544</t>
+          <t>6913011860</t>
         </is>
       </c>
       <c r="D14" s="1" t="inlineStr">
         <is>
-          <t>1177746521798</t>
+          <t>1056914004641</t>
         </is>
       </c>
       <c r="E14" s="1" t="inlineStr">
         <is>
-          <t>Юридическое лицо признано несостоятельным (банкротом) и в отношении него открыто конкурсное производство</t>
+          <t>В отношении юридического лица в деле о несостоятельности (банкротстве) введено наблюдение</t>
         </is>
       </c>
       <c r="F14" s="1" t="inlineStr">
         <is>
-          <t>г. Москва</t>
+          <t>Тверская область</t>
         </is>
       </c>
       <c r="G14" s="1" t="inlineStr">
         <is>
-          <t>111024, Г.МОСКВА, УЛ. 2-Я ЭНТУЗИАСТОВ, Д. 5, К. 40, Э 3 П IV КОМ 39 ОФ 5</t>
+          <t>172730, ТВЕРСКАЯ ОБЛАСТЬ, Г ОСТАШКОВ, УЛ ОКТЯБРЬСКАЯ, Д. 126А</t>
         </is>
       </c>
       <c r="H14" s="1" t="inlineStr">
         <is>
-          <t>Конкурсное производство</t>
+          <t>Наблюдение</t>
         </is>
       </c>
       <c r="I14" s="1" t="inlineStr">
         <is>
-          <t>А40-149993/2021</t>
+          <t>А66-15773/2025</t>
         </is>
       </c>
       <c r="J14" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>44592</v>
+        <v>45971</v>
       </c>
       <c r="L14" s="1" t="inlineStr">
         <is>
-          <t>Андреева Виктория Владимировна</t>
+          <t>Ильин Илья Валерьевич</t>
         </is>
       </c>
       <c r="M14" s="1" t="inlineStr"/>
       <c r="N14" s="2" t="n">
-        <v>44609</v>
+        <v>45977</v>
       </c>
       <c r="O14" s="1" t="inlineStr">
         <is>
-          <t>772001001</t>
+          <t>691301001</t>
         </is>
       </c>
       <c r="P14" s="1" t="n">
-        <v>50000</v>
+        <v>1000000</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>42881</v>
+        <v>38530</v>
       </c>
       <c r="R14" s="1" t="inlineStr">
         <is>
@@ -1693,88 +1743,92 @@
       </c>
       <c r="S14" s="1" t="inlineStr">
         <is>
-          <t>Строительство жилых и нежилых зданий</t>
-        </is>
-      </c>
-      <c r="T14" s="1" t="inlineStr"/>
-      <c r="U14" s="1" t="inlineStr"/>
+          <t>Производство хлеба и мучных кондитерских изделий, тортов и пирожных недлительного хранения</t>
+        </is>
+      </c>
+      <c r="T14" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="U14" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="V14" s="1" t="inlineStr">
         <is>
-          <t>https://fedresurs.ru/backend/companies/51f9fa02-25b3-4d2c-8d0c-d9cb5d371ec9</t>
+          <t>https://fedresurs.ru/backend/companies/b6f06b2b-b2d9-4cb2-8486-25a20cbcf409</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>180bc832-cafd-410a-af50-003605ee5c88</t>
+          <t>9fac7859-0e0c-4dbe-88d7-88685b85b0ed</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>ООО "СТОД"</t>
+          <t>ООО "ХИММАШ-СЕРВИС"</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>7840322535</t>
+          <t>3604082322</t>
         </is>
       </c>
       <c r="D15" s="1" t="inlineStr">
         <is>
-          <t>1057811913686</t>
+          <t>1173668048553</t>
         </is>
       </c>
       <c r="E15" s="1" t="inlineStr">
         <is>
-          <t>Юридическое лицо признано несостоятельным (банкротом) и в отношении него открыто конкурсное производство</t>
+          <t>В отношении юридического лица в деле о несостоятельности (банкротстве) введено наблюдение</t>
         </is>
       </c>
       <c r="F15" s="1" t="inlineStr">
         <is>
-          <t>г. Санкт-Петербург</t>
+          <t>Воронежская область</t>
         </is>
       </c>
       <c r="G15" s="1" t="inlineStr">
         <is>
-          <t>191186, Г.САНКТ-ПЕТЕРБУРГ, УЛ. БОЛЬШАЯ МОРСКАЯ, Д. 14, ЛИТЕР А, ПОМЕЩ. 120-Н ОФИС 314</t>
+          <t>394010, ВОРОНЕЖСКАЯ ОБЛАСТЬ, Г.О. ГОРОД ВОРОНЕЖ, Г ВОРОНЕЖ, УЛ БОГДАНА ХМЕЛЬНИЦКОГО, Д. 77А, ОФИС 18</t>
         </is>
       </c>
       <c r="H15" s="1" t="inlineStr">
         <is>
-          <t>Конкурсное производство</t>
+          <t>Наблюдение</t>
         </is>
       </c>
       <c r="I15" s="1" t="inlineStr">
         <is>
-          <t>А56-8600/2021</t>
+          <t>А14-6619/2025</t>
         </is>
       </c>
       <c r="J15" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>45694</v>
+        <v>45881</v>
       </c>
       <c r="L15" s="1" t="inlineStr">
         <is>
-          <t>Логинов Олег Анатольевич</t>
+          <t>Максимов Роман Викторович</t>
         </is>
       </c>
       <c r="M15" s="1" t="inlineStr"/>
       <c r="N15" s="2" t="n">
-        <v>45701</v>
+        <v>45887</v>
       </c>
       <c r="O15" s="1" t="inlineStr">
         <is>
-          <t>784001001</t>
+          <t>366101001</t>
         </is>
       </c>
       <c r="P15" s="1" t="n">
-        <v>35000000</v>
+        <v>10000</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>38580</v>
+        <v>42993</v>
       </c>
       <c r="R15" s="1" t="inlineStr">
         <is>
@@ -1783,36 +1837,40 @@
       </c>
       <c r="S15" s="1" t="inlineStr">
         <is>
-          <t>Производство фанеры, деревянных фанерованных панелей и аналогичных слоистых материалов, древесных плит из древесины и других одревесневших материалов</t>
-        </is>
-      </c>
-      <c r="T15" s="1" t="inlineStr"/>
-      <c r="U15" s="1" t="inlineStr"/>
+          <t>Производство теплообменных устройств, оборудования для кондиционирования воздуха промышленного холодильного и морозильного оборудования, производство оборудования для фильтрования и очистки газов</t>
+        </is>
+      </c>
+      <c r="T15" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="U15" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="V15" s="1" t="inlineStr">
         <is>
-          <t>https://fedresurs.ru/backend/companies/180bc832-cafd-410a-af50-003605ee5c88</t>
+          <t>https://fedresurs.ru/backend/companies/9fac7859-0e0c-4dbe-88d7-88685b85b0ed</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>3e61aae4-2f8f-46c5-a147-db7b386aff8a</t>
+          <t>df626035-c7e6-4fce-8a8a-88a431e08560</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>ООО "М-АУДИТ"</t>
+          <t>ООО "ЭНЕРДЖИ-М"</t>
         </is>
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
-          <t>5017077995</t>
+          <t>9710083760</t>
         </is>
       </c>
       <c r="D16" s="1" t="inlineStr">
         <is>
-          <t>1085017003587</t>
+          <t>1207700198892</t>
         </is>
       </c>
       <c r="E16" s="1" t="inlineStr">
@@ -1822,12 +1880,12 @@
       </c>
       <c r="F16" s="1" t="inlineStr">
         <is>
-          <t>Московская область</t>
+          <t>г. Москва</t>
         </is>
       </c>
       <c r="G16" s="1" t="inlineStr">
         <is>
-          <t>143517, МОСКОВСКАЯ ОБЛАСТЬ, Г ИСТРА, П ГЛЕБОВСКИЙ, УЛ МИКРОРАЙОН, Д. 3, 62</t>
+          <t>125009, Г.МОСКВА, УЛ. ТВЕРСКАЯ, Д. 16, СТР. 1, Э/ОФ 5/Б511</t>
         </is>
       </c>
       <c r="H16" s="1" t="inlineStr">
@@ -1837,34 +1895,34 @@
       </c>
       <c r="I16" s="1" t="inlineStr">
         <is>
-          <t>А41-103259/2019</t>
+          <t>А40-68301/2023</t>
         </is>
       </c>
       <c r="J16" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>44035</v>
+        <v>45331</v>
       </c>
       <c r="L16" s="1" t="inlineStr">
         <is>
-          <t>Хуторной Алексей Юрьевич</t>
+          <t>Викторова Елена Юрьевна</t>
         </is>
       </c>
       <c r="M16" s="1" t="inlineStr"/>
       <c r="N16" s="2" t="n">
-        <v>44039</v>
+        <v>45336</v>
       </c>
       <c r="O16" s="1" t="inlineStr">
         <is>
-          <t>501701001</t>
+          <t>771001001</t>
         </is>
       </c>
       <c r="P16" s="1" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>39626</v>
+        <v>44000</v>
       </c>
       <c r="R16" s="1" t="inlineStr">
         <is>
@@ -1873,14 +1931,18 @@
       </c>
       <c r="S16" s="1" t="inlineStr">
         <is>
-          <t>Деятельность в области права</t>
-        </is>
-      </c>
-      <c r="T16" s="1" t="inlineStr"/>
-      <c r="U16" s="1" t="inlineStr"/>
+          <t>Деятельность по предоставлению прочих вспомогательных услуг для бизнеса, не включенная в другие группировки</t>
+        </is>
+      </c>
+      <c r="T16" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="U16" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="V16" s="1" t="inlineStr">
         <is>
-          <t>https://fedresurs.ru/backend/companies/3e61aae4-2f8f-46c5-a147-db7b386aff8a</t>
+          <t>https://fedresurs.ru/backend/companies/df626035-c7e6-4fce-8a8a-88a431e08560</t>
         </is>
       </c>
     </row>

--- a/bankruptcy_data.xlsx
+++ b/bankruptcy_data.xlsx
@@ -432,24 +432,24 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="27" customWidth="1" min="1" max="1"/>
     <col width="15" customWidth="1" min="2" max="2"/>
     <col width="18" customWidth="1" min="3" max="3"/>
     <col width="109" customWidth="1" min="4" max="4"/>
-    <col width="45" customWidth="1" min="5" max="5"/>
-    <col width="104" customWidth="1" min="6" max="6"/>
-    <col width="35" customWidth="1" min="7" max="7"/>
+    <col width="26" customWidth="1" min="5" max="5"/>
+    <col width="124" customWidth="1" min="6" max="6"/>
+    <col width="36" customWidth="1" min="7" max="7"/>
     <col width="25" customWidth="1" min="8" max="8"/>
     <col width="16" customWidth="1" min="9" max="9"/>
     <col width="33" customWidth="1" min="10" max="10"/>
-    <col width="37" customWidth="1" min="11" max="11"/>
+    <col width="39" customWidth="1" min="11" max="11"/>
     <col width="21" customWidth="1" min="12" max="12"/>
     <col width="33" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
     <col width="21" customWidth="1" min="15" max="15"/>
     <col width="21" customWidth="1" min="16" max="16"/>
     <col width="45" customWidth="1" min="17" max="17"/>
-    <col width="113" customWidth="1" min="18" max="18"/>
+    <col width="94" customWidth="1" min="18" max="18"/>
     <col width="22" customWidth="1" min="19" max="19"/>
     <col width="18" customWidth="1" min="20" max="20"/>
     <col width="80" customWidth="1" min="21" max="21"/>
@@ -565,73 +565,73 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ООО "УКТ-99"</t>
+          <t>ООО "ЭНЕРГОГАРАНТЪ"</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>6658096951</t>
+          <t>5262362127</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1026602347397</t>
+          <t>1195275011095</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Юридическое лицо признано несостоятельным (банкротом) и в отношении него открыто конкурсное производство</t>
+          <t>В отношении юридического лица в деле о несостоятельности (банкротстве) введено наблюдение</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Свердловская область</t>
+          <t>Нижегородская область</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>620075, СВЕРДЛОВСКАЯ ОБЛАСТЬ, Г. ЕКАТЕРИНБУРГ, УЛ. ПЕРВОМАЙСКАЯ, Д. 56, ЭТАЖ 7, ОФИС 58</t>
+          <t>603089, НИЖЕГОРОДСКАЯ ОБЛАСТЬ, Г. НИЖНИЙ НОВГОРОД, УЛ. РЕСПУБЛИКАНСКАЯ, Д. 22, ЛИТЕР А, ОФИС 23</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Конкурсное производство</t>
+          <t>Наблюдение</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>А60-23992/2024</t>
+          <t>А43-18284/2025</t>
         </is>
       </c>
       <c r="I2" t="b">
         <v>1</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>45714</v>
+        <v>45967</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>ШИЧКИНА АННА АНДРЕЕВНА</t>
+          <t>ГОРДЕЕВ СЕРГЕЙ БОРИСОВИЧ</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>665903529007</t>
+          <t>526097487689</t>
         </is>
       </c>
       <c r="M2" s="2" t="n">
-        <v>45793</v>
+        <v>45237</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>667001001</t>
+          <t>526201001</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>344560</v>
+        <v>10000</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>37607</v>
+        <v>43521</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -640,35 +640,35 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Обработка отходов и лома цветных металлов</t>
+          <t>Торговля электроэнергией</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>https://fedresurs.ru/backend/companies/3fd874e1-819b-4055-96e1-7dcddbc72e19</t>
+          <t>https://fedresurs.ru/backend/companies/62cff3d3-8deb-4d80-bccb-0808e018e428</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ООО "НЕФТЕСТАЛЬМОНТАЖ"</t>
+          <t>ООО "ЭНКИ"</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>5603013506</t>
+          <t>4707044225</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1035601204187</t>
+          <t>1214700014715</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -678,12 +678,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Оренбургская область</t>
+          <t>Ленинградская область</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>461046, ОРЕНБУРГСКАЯ ОБЛАСТЬ, Г. БУЗУЛУК, УЛ. ПРОМЫШЛЕННАЯ, Д.1</t>
+          <t>188480, ЛЕНИНГРАДСКАЯ ОБЛАСТЬ, М.Р-Н. КИНГИСЕППСКИЙ, Г.П. КИНГИСЕППСКОЕ, Г КИНГИСЕПП, УЛ ОКТЯБРЬСКАЯ, ЗД. 26, ПОМЕЩ. 26</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -693,38 +693,38 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>А47-10463/2020</t>
+          <t>А56-104407/2023</t>
         </is>
       </c>
       <c r="I3" t="b">
         <v>1</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>45141</v>
+        <v>45630</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>ГОРБУНОВ ВЯЧЕСЛАВ АЛЕКСАНДРОВИЧ</t>
+          <t>ТУЛУМОВ АНАТОЛИЙ ЭДУАРДОВИЧ</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>561011531261</t>
+          <t>425005199713</t>
         </is>
       </c>
       <c r="M3" s="2" t="n">
-        <v>45445</v>
+        <v>45635</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>560301001</t>
+          <t>470701001</t>
         </is>
       </c>
       <c r="O3" t="n">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>37943</v>
+        <v>44449</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -733,35 +733,35 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Производство земляных работ</t>
+          <t>Строительство жилых и нежилых зданий</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="T3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>https://fedresurs.ru/backend/companies/ec459b98-ebb2-4e7d-91e5-5c6f2b1a2190</t>
+          <t>https://fedresurs.ru/backend/companies/4ebbeebb-b875-40df-bee9-37ab64ce008c</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ООО "УК ЯРОВОЕ"</t>
+          <t>ООО "РГ-ЭНЕРГОТРЕЙД"</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2211005146</t>
+          <t>7714366902</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1102210000276</t>
+          <t>5157746172513</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -771,12 +771,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Алтайский край</t>
+          <t>г. Москва</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>658839, АЛТАЙСКИЙ КРАЙ, Г. ЯРОВОЕ, УЛ. ЗАВОДСКАЯ, Д.10</t>
+          <t>123112, Г.МОСКВА, ВН.ТЕР.Г. МУНИЦИПАЛЬНЫЙ ОКРУГ ПРЕСНЕНСКИЙ, НАБ ПРЕСНЕНСКАЯ, Д. 12, ПОМЕЩ. 10/45</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -786,38 +786,38 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>А03-10796/2023</t>
+          <t>А40-52770/2025</t>
         </is>
       </c>
       <c r="I4" t="b">
         <v>1</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>45355</v>
+        <v>45973</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>ВОЙНОВ РОМАН ГЕННАДЬЕВИЧ</t>
+          <t>ИВАНОВ-БОЙЦОВ АЛЕКСАНДР НИКОЛАЕВИЧ</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>222204871463</t>
+          <t>781696678863</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
-        <v>45946</v>
+        <v>45982</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>221101001</t>
+          <t>770301001</t>
         </is>
       </c>
       <c r="O4" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>40295</v>
+        <v>42355</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -826,91 +826,91 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Управление недвижимым имуществом за вознаграждение или на договорной основе</t>
+          <t>Торговля электроэнергией</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>https://fedresurs.ru/backend/companies/de360fc5-0c76-4f9e-8418-97b83bc1f44b</t>
+          <t>https://fedresurs.ru/backend/companies/28a3f125-83b1-478f-a84e-b6fb4af8084f</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ООО "ВИКТОРИЯ-АГРОСЕРВИС"</t>
+          <t>ООО "АСТРОН МАРИН"</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2224059036</t>
+          <t>7816531249</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1022201525631</t>
+          <t>1127847077192</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Юридическое лицо признано несостоятельным (банкротом) и в отношении него открыто конкурсное производство</t>
+          <t>В отношении юридического лица в деле о несостоятельности (банкротстве) введено наблюдение</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Алтайский край</t>
+          <t>г. Санкт-Петербург</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>656067, АЛТАЙСКИЙ КРАЙ, Г. БАРНАУЛ, УЛ. ПОПОВА, Д.226</t>
+          <t>193091, Г.САНКТ-ПЕТЕРБУРГ, НАБ ОКТЯБРЬСКАЯ, Д. 10, К. 1 СТР. 1, ПОМЕЩ. 3-Н</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Конкурсное производство</t>
+          <t>Наблюдение</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>А03-5289/2017</t>
+          <t>А56-103637/2025</t>
         </is>
       </c>
       <c r="I5" t="b">
         <v>1</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>43094</v>
+        <v>45986</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>ВОЙНОВ РОМАН ГЕННАДЬЕВИЧ</t>
+          <t>СТАВСКИЙ ВИКТОР ВЛАДИМИРОВИЧ</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>222204871463</t>
+          <t>781122784690</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
-        <v>43112</v>
+        <v>40949</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>222201001</t>
+          <t>781101001</t>
         </is>
       </c>
       <c r="O5" t="n">
         <v>10000</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>37572</v>
+        <v>40949</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -919,50 +919,50 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Аренда и управление собственным или арендованным нежилым недвижимым имуществом</t>
+          <t>Строительство кораблей, судов и лодок</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>258</v>
+        <v>6</v>
       </c>
       <c r="T5" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>https://fedresurs.ru/backend/companies/a87d304e-9c35-4521-a497-f0515df9e4b1</t>
+          <t>https://fedresurs.ru/backend/companies/d7e3f97d-234a-475e-97f4-9210d48f8b83</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ООО "СТРОЙТЕК"</t>
+          <t>ООО "АКТИВ АГРО"</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>7716928949</t>
+          <t>2225206205</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1197746024376</t>
+          <t>1192225035188</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Юридическое лицо признано несостоятельным (банкротом) и в отношении него открыто конкурсное производство</t>
+          <t>Ликвидировано на основании решения суда о признании его несостоятельным (банкротом)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>г. Москва</t>
+          <t>Алтайский край</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>121108, Г.МОСКВА, УЛ. ИВАНА ФРАНКО, Д. 4, К. 1, ЭТ/ПОМ/КОМ 2/1/1</t>
+          <t>656056, АЛТАЙСКИЙ КРАЙ, Г. БАРНАУЛ, УЛ. ПУШКИНА, Д. 21, ОФИС 409/1</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -972,168 +972,168 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>А40-42708/2025</t>
+          <t>А03-9391/2023</t>
         </is>
       </c>
       <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>45561</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>ВОЛОКИТИН АНДРЕЙ ВИКТОРОВИЧ</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>222507491020</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="n">
+        <v>45284</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>222501001</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>30000</v>
+      </c>
+      <c r="P6" s="2" t="n">
+        <v>43755</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Общества с ограниченной ответственностью</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Выращивание зерновых (кроме риса), зернобобовых культур и семян масличных культур</t>
+        </is>
+      </c>
+      <c r="S6" t="n">
+        <v>26</v>
+      </c>
+      <c r="T6" t="n">
         <v>1</v>
       </c>
-      <c r="J6" s="2" t="n">
-        <v>46037</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>КОШКИНА НАТАЛИЯ САЛЕХОВНА</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>391302112300</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="n">
-        <v>45795</v>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>773101001</t>
-        </is>
-      </c>
-      <c r="O6" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="P6" s="2" t="n">
-        <v>43487</v>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>Общества с ограниченной ответственностью</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>Строительство жилых и нежилых зданий</t>
-        </is>
-      </c>
-      <c r="S6" t="n">
-        <v>50</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>https://fedresurs.ru/backend/companies/006d94fe-1ade-467d-9e0b-5dbe91cfd9b7</t>
+          <t>https://fedresurs.ru/backend/companies/e9b294b0-026f-4678-9bc9-225d4db3223c</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>АО "ЖИЛИЩНИК"</t>
+          <t>ООО "СЕВЕР 51"</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>6731065371</t>
+          <t>5190045327</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1076731017780</t>
+          <t>1155190002440</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Действующее</t>
+          <t>Юридическое лицо признано несостоятельным (банкротом) и в отношении него открыто конкурсное производство</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Смоленская область</t>
+          <t>Мурманская область</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>214018, СМОЛЕНСКАЯ ОБЛАСТЬ, Г. СМОЛЕНСК, УЛ. КИЕВСКАЯ 2-Я, Д.20</t>
+          <t>183008, МУРМАНСКАЯ ОБЛАСТЬ, Г. МУРМАНСК, УЛ. ОЛЕГА КОШЕВОГО, Д. 12, К. 1, ОФИС 1</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Наблюдение</t>
+          <t>Конкурсное производство</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>А62-7076/2021</t>
+          <t>А42-4252/2025</t>
         </is>
       </c>
       <c r="I7" t="b">
         <v>1</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>45915</v>
+        <v>45985</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>НОВИКОВ ИВАН ВЛАДИМИРОВИЧ</t>
+          <t>ТУЛУМОВ АНАТОЛИЙ ЭДУАРДОВИЧ</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>671401304418</t>
+          <t>425005199713</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
-        <v>45180</v>
+        <v>46018</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>673101001</t>
+          <t>519001001</t>
         </is>
       </c>
       <c r="O7" t="n">
-        <v>45600000</v>
+        <v>300000</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>39416</v>
+        <v>42067</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Публичные акционерные общества</t>
+          <t>Общества с ограниченной ответственностью</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Управление эксплуатацией жилого фонда за вознаграждение или на договорной основе</t>
+          <t>Торговля оптовая пивом</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>https://fedresurs.ru/backend/companies/b055c7ba-9f67-454d-b532-64c0e6d60656</t>
+          <t>https://fedresurs.ru/backend/companies/710a85bd-39fd-4b3d-a96e-b89a1d0c60d0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ООО "ТДРК"</t>
+          <t>ООО ФИРМА "МАГИСТРАЛЬ"</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7729668350</t>
+          <t>7707010165</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1107746935405</t>
+          <t>1037739361637</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>117342, Г.МОСКВА, УЛ. БУТЛЕРОВА, Д. 17Б, ПОМ XI КОМ 60Е ОФИС 165</t>
+          <t>127055, Г.МОСКВА, УЛ. НОВОЛЕСНАЯ, Д.3, К.2</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1158,38 +1158,38 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>А40-251278/2022</t>
+          <t>А40-50333/2025</t>
         </is>
       </c>
       <c r="I8" t="b">
         <v>1</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>45146</v>
+        <v>45979</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>ПЛОТНИКОВА ВИКТОРИЯ МИХАЙЛОВНА</t>
+          <t>СААДЕТДИНОВА МАРИНА НИКОЛАЕВНА</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>366310212108</t>
+          <t>771706730710</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
-        <v>45432</v>
+        <v>45987</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>772801001</t>
+          <t>770701001</t>
         </is>
       </c>
       <c r="O8" t="n">
-        <v>300000</v>
+        <v>100020</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>40498</v>
+        <v>37655</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1198,81 +1198,91 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Производство прочих отделочных и завершающих работ</t>
+          <t>Управление эксплуатацией жилого фонда за вознаграждение или на договорной основе</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>https://fedresurs.ru/backend/companies/96ad118f-a497-47a9-9f66-5d3c739f8016</t>
+          <t>https://fedresurs.ru/backend/companies/502e03d3-12d6-4734-958b-0aff72fec2db</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ООО "ТД ИТС"</t>
+          <t>ООО "ЭКОДОМ"</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>9403028220</t>
+          <t>6950205952</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1239400008209</t>
+          <t>1176952007231</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Действующее</t>
+          <t>Юридическое лицо признано несостоятельным (банкротом) и в отношении него открыто конкурсное производство</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Луганская народная республика</t>
+          <t>Тверская область</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>291016, ЛУГАНСКАЯ НАРОДНАЯ РЕСПУБЛИКА, Г.О. ГОРОД ЛУГАНСК, Г. ЛУГАНСК, УЛ. ДЕМЕХИНА, Д. 27А, ОФИС 1</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
+          <t>170043, ТВЕРСКАЯ ОБЛАСТЬ, Г. ТВЕРЬ, ПР-КТ ОКТЯБРЬСКИЙ, Д. 75, ОФИС 7</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Конкурсное производство</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>А66-2158/2022</t>
+        </is>
+      </c>
       <c r="I9" t="b">
         <v>1</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" s="2" t="n">
+        <v>44908</v>
+      </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>АЛЕКСАНДРОВ СЕРГЕЙ НИКОЛАЕВИЧ</t>
+          <t>БУТ ЮРИЙ АНАТОЛЬЕВИЧ</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>323201126761</t>
+          <t>690500996496</t>
         </is>
       </c>
       <c r="M9" s="2" t="n">
-        <v>45251</v>
+        <v>45403</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>940301001</t>
+          <t>695001001</t>
         </is>
       </c>
       <c r="O9" t="n">
-        <v>1000000</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>45251</v>
+        <v>42842</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1281,35 +1291,35 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Торговля оптовая прочими машинами и оборудованием</t>
+          <t>Управление недвижимым имуществом за вознаграждение или на договорной основе</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>https://fedresurs.ru/backend/companies/3da162aa-bdfc-4f5f-b025-739e8c168e44</t>
+          <t>https://fedresurs.ru/backend/companies/6bd2d0e7-0685-4904-bd7c-bca597f35408</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ООО "МЕТЭКС"</t>
+          <t>ООО "МЕТАЛЛ ТЕК"</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4345489037</t>
+          <t>1659196276</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1194350002142</t>
+          <t>1191690003702</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1319,12 +1329,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Кировская область</t>
+          <t>Республика Татарстан</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>610042, КИРОВСКАЯ ОБЛАСТЬ, Г. КИРОВ, УЛ. СЕВЕРО-САДОВАЯ, Д. 2, КВ. 38</t>
+          <t>420054, РЕСПУБЛИКА ТАТАРСТАН (ТАТАРСТАН), Г.О. ГОРОД КАЗАНЬ, Г КАЗАНЬ, УЛ АВАНГАРДНАЯ, ЗД. 80/1, ПОМЕЩ. 408</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1334,38 +1344,38 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>А28-12679/2022</t>
+          <t>А65-36118/2025</t>
         </is>
       </c>
       <c r="I10" t="b">
         <v>1</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>45184</v>
+        <v>45985</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>МАКАРОВА ТАТЬЯНА АНДРЕЕВНА</t>
+          <t>АЛИУЛЛОВ РАМИЛЬ НУРУЛЛОВИЧ</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>590808842947</t>
+          <t>165718128085</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
-        <v>45851</v>
+        <v>45995</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>434501001</t>
+          <t>165901001</t>
         </is>
       </c>
       <c r="O10" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>43516</v>
+        <v>43483</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1378,31 +1388,31 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="T10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>https://fedresurs.ru/backend/companies/7c123ece-7d74-48b2-8bbf-7d14317d9e16</t>
+          <t>https://fedresurs.ru/backend/companies/ab4fca24-aff2-4aa3-8d0c-3717acc88bf9</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ООО "МОНТЭ"</t>
+          <t>ООО "АНДАСА"</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3811046869</t>
+          <t>7734434090</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1153850048186</t>
+          <t>1207700142748</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1412,12 +1422,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Иркутская область</t>
+          <t>г. Москва</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>664044, ИРКУТСКАЯ ОБЛАСТЬ, Г. ИРКУТСК, УЛ. ДМИТРИЯ ДОНСКОГО, Д. 1А</t>
+          <t>105066, Г.МОСКВА, УЛ. ОЛЬХОВСКАЯ, Д. 45, СТР. 1, ЭТАЖ 4</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1427,38 +1437,38 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>А19-3752/2024</t>
+          <t>А40-191185/2023</t>
         </is>
       </c>
       <c r="I11" t="b">
         <v>1</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>45614</v>
+        <v>45356</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>КЕЛЕНЕ ТАТЬЯНА ВЛАДИМИРОВНА</t>
+          <t>ФЕДОРЧЕНКО ИВАН ВЛАДИМИРОВИЧ</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>381108251427</t>
+          <t>280803776630</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
-        <v>45619</v>
+        <v>45364</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>381101001</t>
+          <t>770801001</t>
         </is>
       </c>
       <c r="O11" t="n">
-        <v>10000</v>
+        <v>23000</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>42325</v>
+        <v>43917</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1467,91 +1477,91 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Торговля розничная одеждой в специализированных магазинах</t>
+          <t>Строительство жилых и нежилых зданий</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="T11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>https://fedresurs.ru/backend/companies/f4d3f468-c5f8-49f8-b33f-29cefc6e6a14</t>
+          <t>https://fedresurs.ru/backend/companies/03574840-0155-478c-9705-600ec725e70b</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ООО "СТРОЙКОМПЛЕКТ"</t>
+          <t>ООО "ЭКСПЕРТ СВЯЗЬ"</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1840073486</t>
+          <t>5047264907</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1171832020073</t>
+          <t>1225000065795</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>В отношении юридического лица в деле о несостоятельности (банкротстве) введено наблюдение</t>
+          <t>Юридическое лицо признано несостоятельным (банкротом) и в отношении него открыто конкурсное производство</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Удмуртская Республика</t>
+          <t>Московская область</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>426030, УДМУРТСКАЯ РЕСПУБЛИКА, Г.О. ГОРОД ИЖЕВСК, Г ИЖЕВСК, УЛ ДАРЬИНСКАЯ, Д. 4, КВ. 160</t>
+          <t>141421, МОСКОВСКАЯ ОБЛАСТЬ, Г.О. ХИМКИ, Г ХИМКИ, МКР. СХОДНЯ, УЛ ПЕРВОМАЙСКАЯ, Д. 89, КВ. 13</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Наблюдение</t>
+          <t>Конкурсное производство</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>А71-467/2025</t>
+          <t>А41-58566/2025</t>
         </is>
       </c>
       <c r="I12" t="b">
         <v>1</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>45873</v>
+        <v>45916</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>АНДРЕЕВСКИХ НАТАЛЬЯ ВЛАДИМИРОВНА</t>
+          <t>АНУФРИЕВ АНТОН ВАЛЕРИЕВИЧ</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>183208850648</t>
+          <t>110101240745</t>
         </is>
       </c>
       <c r="M12" s="2" t="n">
-        <v>43298</v>
+        <v>45926</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>184001001</t>
+          <t>504701001</t>
         </is>
       </c>
       <c r="O12" t="n">
         <v>10000</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>42964</v>
+        <v>44740</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1560,35 +1570,35 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Строительство жилых и нежилых зданий</t>
+          <t>Торговля оптовая электронным и телекоммуникационным оборудованием и его запасными частями</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>https://fedresurs.ru/backend/companies/8d2d4d31-d89e-40f6-8c73-a07d3323b22f</t>
+          <t>https://fedresurs.ru/backend/companies/d742ccc3-61ae-4516-901a-d083560b6b03</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ООО "СК ВИРТА"</t>
+          <t>ООО "ПОЛИМЕРПЛАСТ"</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1658132583</t>
+          <t>6704008462</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1121690003511</t>
+          <t>1036740301520</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1598,12 +1608,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Республика Татарстан</t>
+          <t>Смоленская область</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>420061, РЕСПУБЛИКА ТАТАРСТАН (ТАТАРСТАН), Г КАЗАНЬ, УЛ НИКОЛАЯ ЕРШОВА, Д. 32/23, ОФИС 66</t>
+          <t>215750, СМОЛЕНСКАЯ ОБЛАСТЬ, Р-Н ДОРОГОБУЖСКИЙ, ПГТ ВЕРХНЕДНЕПРОВСКИЙ, УЛ СОВЕТСКАЯ</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1613,38 +1623,38 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>А65-28482/2015</t>
+          <t>А62-10127/2022</t>
         </is>
       </c>
       <c r="I13" t="b">
         <v>1</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>42543</v>
+        <v>45139</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>МИНГАЗОВА АЛИНА АВХАТОВНА</t>
+          <t>ГЛУСТЕНКОВ ИГОРЬ ВАЛЕНТИНОВИЧ</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>163803083184</t>
+          <t>632110986709</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
-        <v>45554</v>
+        <v>45145</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>165501001</t>
+          <t>670401001</t>
         </is>
       </c>
       <c r="O13" t="n">
-        <v>16000</v>
+        <v>1010000</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>40928</v>
+        <v>37776</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1653,35 +1663,35 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Строительство жилых и нежилых зданий</t>
+          <t>Производство пластмасс и синтетических смол в первичных формах</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>145</v>
+        <v>84</v>
       </c>
       <c r="T13" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>https://fedresurs.ru/backend/companies/bc10121e-7bf3-48b7-bc95-4a32a918650b</t>
+          <t>https://fedresurs.ru/backend/companies/5c3e4480-bb4b-426d-a50f-e309b9f67749</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ООО "МЭК"</t>
+          <t>ООО "СИБСТРОЙКОНТАКТ"</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>5610213489</t>
+          <t>5402558411</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1155658014490</t>
+          <t>1135476001495</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1691,12 +1701,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Оренбургская область</t>
+          <t>Московская область</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>460058, ОРЕНБУРГСКАЯ ОБЛАСТЬ, Г.О. ГОРОД ОРЕНБУРГ, Г ОРЕНБУРГ, УЛ ЧКАЛОВА, Д. 35, КВ. 50</t>
+          <t>143409, МОСКОВСКАЯ ОБЛАСТЬ, Г КРАСНОГОРСК, УЛ УСПЕНСКАЯ, Д. 3, ОФИС 509</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1706,38 +1716,38 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>А47-21426/2023</t>
+          <t>А41-16451/2017</t>
         </is>
       </c>
       <c r="I14" t="b">
         <v>1</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>45484</v>
+        <v>43193</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>СЕМЕНЧЕНКО ВЕНИАМИН СЕРГЕЕВИЧ</t>
+          <t>ТИТАРЕНКО ЮЛИЯ АЛЕКСАНДРОВНА</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>564602650622</t>
+          <t>540452315118</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
-        <v>45834</v>
+        <v>43476</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>561001001</t>
+          <t>502401001</t>
         </is>
       </c>
       <c r="O14" t="n">
-        <v>500000</v>
+        <v>550000</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>42153</v>
+        <v>41284</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1750,180 +1760,180 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>56</v>
+        <v>141</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>https://fedresurs.ru/backend/companies/6ea36636-2fb3-46d0-b139-3ec273473c8b</t>
+          <t>https://fedresurs.ru/backend/companies/57146a74-0404-48de-aa1e-5bd3b77a6720</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>КПК "РЕЗУЛЬТАТ"</t>
+          <t>ООО "УК ОСНОВА"</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2904023333</t>
+          <t>5907049409</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1112904000769</t>
+          <t>1215900001734</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Юридическое лицо признано несостоятельным (банкротом) и в отношении него открыто конкурсное производство</t>
+          <t>В отношении юридического лица в деле о несостоятельности (банкротстве) введено наблюдение</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Нижегородская область</t>
+          <t>Пермский край</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>606210, НИЖЕГОРОДСКАЯ ОБЛАСТЬ, Р-Н ЛЫСКОВСКИЙ, Г. ЛЫСКОВО, УЛ. МИЧУРИНА, Д. 40, ОФИС 3</t>
+          <t>614030, ПЕРМСКИЙ КРАЙ, Г.О. ПЕРМСКИЙ, Г ПЕРМЬ, УЛ РЕПИНА, Д. 2Б, ПОМЕЩ. 109</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Конкурсное производство</t>
+          <t>Наблюдение</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>А43-30195/2023</t>
+          <t>А50-16977/2025</t>
         </is>
       </c>
       <c r="I15" t="b">
         <v>1</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>45960</v>
+        <v>45919</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>ПАХОМОВА НАДИЯ МАНСУРОВНА</t>
+          <t>РЫЧИХИН АРТЕМ СЕРГЕЕВИЧ</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>131100791712</t>
+          <t>590583710321</t>
         </is>
       </c>
       <c r="M15" s="2" t="n">
-        <v>45967</v>
+        <v>45873</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>522201001</t>
+          <t>590701001</t>
         </is>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>40686</v>
+        <v>44230</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>Кредитные потребительские кооперативы</t>
+          <t>Общества с ограниченной ответственностью</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Деятельность по предоставлению прочих финансовых услуг, кроме услуг по страхованию и пенсионному обеспечению</t>
+          <t>Управление недвижимым имуществом за вознаграждение или на договорной основе</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>https://fedresurs.ru/backend/companies/8e85c171-e4d1-47f7-831a-ce7fa4a66641</t>
+          <t>https://fedresurs.ru/backend/companies/134607c0-fcb2-481e-a56e-8cb239a41bf3</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ООО "СЕВЕРСТРОЙ"</t>
+          <t>ООО "САД"</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>8602225824</t>
+          <t>5605006293</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1028600582295</t>
+          <t>1075607001271</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Юридическое лицо признано несостоятельным (банкротом) и в отношении него открыто конкурсное производство</t>
+          <t>Действующее</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Ханты-Мансийский автономный округ - Югра</t>
+          <t>Оренбургская область</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>628403, ХАНТЫ-МАНСИЙСКИЙ АВТОНОМНЫЙ ОКРУГ - ЮГРА, Г. СУРГУТ, УЛ. УНИВЕРСИТЕТСКАЯ, Д. 11, ОФИС 3.3.</t>
+          <t>462250, ОРЕНБУРГСКАЯ ОБЛАСТЬ, Р-Н КУВАНДЫКСКИЙ, Ж/Д_СТ САРА, УЛ ГАГАРИНА, Д. 2</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Конкурсное производство</t>
+          <t>Производство по делу прекращено</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>А75-19049/2019</t>
+          <t>А47-8987/2017</t>
         </is>
       </c>
       <c r="I16" t="b">
         <v>1</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>44586</v>
+        <v>43650</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>СИДОР ПАВЕЛ ЛЕОНИДОВИЧ</t>
+          <t>ГЕРАСИМЕНКО АЛЕКСАНДР АНДРЕЕВИЧ</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>720301149983</t>
+          <t>560504828998</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
-        <v>44596</v>
+        <v>41862</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>860201001</t>
+          <t>563201001</t>
         </is>
       </c>
       <c r="O16" t="n">
-        <v>800010000</v>
+        <v>10000</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>37489</v>
+        <v>39238</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1932,18 +1942,18 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Строительство жилых и нежилых зданий</t>
+          <t>Выращивание зерновых культур</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>549</v>
+        <v>17</v>
       </c>
       <c r="T16" t="n">
-        <v>2836</v>
+        <v>0</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>https://fedresurs.ru/backend/companies/11759028-4ea2-4835-ace5-83a8064d2c1c</t>
+          <t>https://fedresurs.ru/backend/companies/bdd9cd1c-5824-4ce7-82f7-bd0268d972d3</t>
         </is>
       </c>
     </row>
